--- a/Test_data_simple_extended.xlsx
+++ b/Test_data_simple_extended.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4dbc8342d6ca6595/Documents/INDØK 10. semester/Master_multi-stage/Simple_extended/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{9154CD62-7683-4163-9D9D-9168E35B10B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D06AF7-35F0-4877-A28B-D838D27257FA}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{9154CD62-7683-4163-9D9D-9168E35B10B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B606FD7-BA18-4C9A-8513-7D85A4EF1628}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" firstSheet="41" activeTab="49" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" firstSheet="54" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Navigation_sheet" sheetId="68" r:id="rId1"/>
@@ -22439,7 +22439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D417"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
@@ -33641,7 +33641,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36503,17 +36503,17 @@
   <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -36526,18 +36526,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -38104,7 +38104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C7BFB5-8521-41A6-9C66-B48CF8C7C45A}">
   <dimension ref="A3:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -38332,151 +38332,154 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF942341-9D13-4514-BD96-A0AB2FEC6496}">
-  <dimension ref="A3:K19"/>
+  <dimension ref="A3:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="J9" s="8"/>
+        <v>1</v>
+      </c>
       <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -38543,7 +38546,7 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41979,7 +41982,7 @@
   <dimension ref="A3:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42000,7 +42003,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -42008,7 +42011,7 @@
         <v>115</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -42016,7 +42019,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -42024,7 +42027,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -42032,7 +42035,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -42040,7 +42043,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -42048,7 +42051,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -42056,7 +42059,7 @@
         <v>116</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -42064,7 +42067,7 @@
         <v>117</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -42072,7 +42075,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -42080,7 +42083,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -42088,7 +42091,7 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -42100,7 +42103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D2A640-3DE1-4626-909C-0B031DDA6CF5}">
   <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -42120,7 +42125,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -42128,7 +42133,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -42136,7 +42141,7 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -42144,7 +42149,7 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -42152,7 +42157,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -42160,7 +42165,7 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -42168,7 +42173,7 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -42206,7 +42211,7 @@
   <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43457,26 +43462,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5caa653f-10d0-46a2-81cc-01cb3798075e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEBC57C6511F094FB1659D4FD897CA2A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e300c8dce90f4bd359ffe07958d068a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5caa653f-10d0-46a2-81cc-01cb3798075e" xmlns:ns3="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="947f29ac9f688054ae1e7aaca14544db" ns2:_="" ns3:_="">
     <xsd:import namespace="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
@@ -43677,26 +43662,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90557570-2947-467E-9F2E-D83CEC05A5B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF13B1C-38D3-42D6-8A5C-6D31028437EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
-    <ds:schemaRef ds:uri="7269c6ca-e946-40a5-ac8b-c5ef060b09ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5caa653f-10d0-46a2-81cc-01cb3798075e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07060BB5-5F94-4742-B93F-B4D1C211ED2E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43713,4 +43699,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90557570-2947-467E-9F2E-D83CEC05A5B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF13B1C-38D3-42D6-8A5C-6D31028437EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
+    <ds:schemaRef ds:uri="7269c6ca-e946-40a5-ac8b-c5ef060b09ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>